--- a/MIR Dictionary/MIR Excel Visualization.xlsx
+++ b/MIR Dictionary/MIR Excel Visualization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14660" windowHeight="13420" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="820" yWindow="0" windowWidth="14660" windowHeight="13420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase 12" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +505,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -627,6 +633,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,18 +683,7 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -1402,7 +1409,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1570,10 +1577,10 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="16"/>
       <c r="L7" s="31" t="s">
         <v>6</v>
@@ -1600,10 +1607,10 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="16"/>
       <c r="L8" s="32"/>
       <c r="M8" s="22"/>
@@ -1630,10 +1637,10 @@
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="44"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="16"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -1658,10 +1665,10 @@
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="16"/>
       <c r="L10" s="24" t="s">
         <v>7</v>
@@ -1688,10 +1695,10 @@
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="35"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
